--- a/CAD/Change Log.xlsx
+++ b/CAD/Change Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\TAVU\SOLDERED products\Soldered products\Senzori-blue\Joystick 2-axis with pushbutton breakout\CAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tavu\SOLDERED products\Soldered products\Senzori-blue\Joystick 2-axis with pushbutton breakout\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>CHANGE LOG</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>v1.1.1.</t>
+  </si>
+  <si>
+    <t>v1.2.2.</t>
+  </si>
+  <si>
+    <t>16.08.2022.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luka </t>
+  </si>
+  <si>
+    <t>Added pull-up to SW pin</t>
   </si>
 </sst>
 </file>
@@ -646,25 +658,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,8 +680,27 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -975,7 +987,7 @@
   <dimension ref="A1:Z1009"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B34" sqref="B34:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1112,7 +1124,7 @@
       <c r="D5" s="57"/>
       <c r="E5" s="57"/>
       <c r="F5" s="15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="17"/>
@@ -1176,7 +1188,7 @@
       <c r="D7" s="57"/>
       <c r="E7" s="58"/>
       <c r="F7" s="19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="17"/>
@@ -1294,20 +1306,20 @@
       <c r="B11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="43"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1328,7 +1340,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="49"/>
@@ -1337,7 +1349,7 @@
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
-      <c r="H12" s="46"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1388,14 +1400,14 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1422,20 +1434,20 @@
       <c r="B15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="43"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1456,16 +1468,16 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1487,14 +1499,14 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="25"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="26"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1517,14 +1529,14 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="25"/>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="26"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1547,14 +1559,14 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="25"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="26"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1577,12 +1589,12 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="25"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="26"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1605,12 +1617,12 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="26"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1633,12 +1645,12 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="25"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="26"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1661,12 +1673,12 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="25"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="26"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1689,12 +1701,12 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="25"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="26"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1717,12 +1729,12 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="25"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
       <c r="H25" s="26"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1745,12 +1757,12 @@
     </row>
     <row r="26" spans="1:26" thickBot="1">
       <c r="A26" s="23"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="24"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1772,14 +1784,14 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1803,17 +1815,23 @@
       <c r="A28" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="40" t="s">
+      <c r="B28" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="F28" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
+      <c r="G28" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="34"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1834,16 +1852,16 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1865,12 +1883,14 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="25"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
+      <c r="B30" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
       <c r="H30" s="26"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1893,12 +1913,12 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="25"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="26"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1921,12 +1941,12 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="25"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="26"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1949,12 +1969,12 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="25"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="26"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1977,12 +1997,12 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="25"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="26"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2005,12 +2025,12 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="25"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
       <c r="H35" s="26"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2033,12 +2053,12 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="25"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
       <c r="H36" s="26"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2061,12 +2081,12 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="25"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="48"/>
       <c r="H37" s="26"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2089,12 +2109,12 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="25"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
       <c r="H38" s="26"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2117,12 +2137,12 @@
     </row>
     <row r="39" spans="1:26" thickBot="1">
       <c r="A39" s="23"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40"/>
       <c r="H39" s="24"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2144,14 +2164,14 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="39"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -29305,6 +29325,30 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="C15:D15"/>
@@ -29320,30 +29364,6 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
